--- a/dist/document/dest/2020/10/loan.xlsx
+++ b/dist/document/dest/2020/10/loan.xlsx
@@ -1,37 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Tổng Hợp" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Chi Tiết" state="visible" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
+  </si>
+  <si>
+    <t>Trình Dược Viên: Loan</t>
+  </si>
+  <si>
+    <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
+  </si>
+  <si>
+    <t>01/09 -&gt; 30/09/2020</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TÊN</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>TCK</t>
+  </si>
+  <si>
+    <t>Picencal (Calcium &amp; Vitamin D)</t>
+  </si>
+  <si>
+    <t>Vinsalamin (Mesalamin 400mg)</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>File này được sinh ra bởi Yến Phạm</t>
+  </si>
+  <si>
+    <t>BẢNG CHIẾT KHẤU CHI TIẾT</t>
+  </si>
+  <si>
+    <t>TÊN THUỐC/BS</t>
+  </si>
+  <si>
+    <t>Vũ Thị Thanh</t>
+  </si>
+  <si>
+    <t>Huyền</t>
+  </si>
+  <si>
+    <t>Tôn Nữ Sao</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Trương Công</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF7b7979"/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe1dbdb"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -39,19 +145,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,218 +536,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Tháng: 10/2020</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Trình dược viên: Loan - &lt;Điện thoại&gt; - Cty TNHH Dược Phẩm Hoàng Trân</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TÊN</v>
-      </c>
-      <c r="B4" t="str">
-        <v>SL</v>
-      </c>
-      <c r="C4" t="str">
-        <v>ĐƠN GIÁ</v>
-      </c>
-      <c r="D4" t="str">
-        <v>TT</v>
-      </c>
-      <c r="E4" t="str">
-        <v>CK</v>
-      </c>
-      <c r="F4" t="str">
-        <v>TCK</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
         <v>720</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="10">
         <v>2900</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="10">
         <v>2088000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="10">
         <v>45</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="10">
         <v>939600</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Vinsalamin (Mesalamin 400mg)</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10">
         <v>1822</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="10">
         <v>7999.999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="10">
         <v>14575998.178</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="10">
         <v>40</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="10">
         <v>5830399.2712</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>TỔNG</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11">
         <v>2542</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
         <v>16663998.178</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
         <v>6769999.2712</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>File này được sinh ra bởi Yến Phạm</v>
-      </c>
+    <row r="9" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
-  </ignoredErrors>
+  <mergeCells count="2">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.45" header="0.2" footer="0.2"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="1" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Tháng: 10/2020</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Trình dược viên: Loan - &lt;Điện thoại&gt; - Cty TNHH Dược Phẩm Hoàng Trân</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TÊN THUỐC/BS</v>
-      </c>
-      <c r="D4" t="str">
-        <v>SL</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="1" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14">
         <v>720</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>Vũ Thị Thanh</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Huyền</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10">
         <v>720</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Vinsalamin (Mesalamin 400mg)</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <v>1822</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>Tôn Nữ Sao</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Mai</v>
-      </c>
-      <c r="D8" s="1">
+    <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10">
         <v>124</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>Trương Công</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Thành</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10">
         <v>1698</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>TỔNG CỘNG</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="11" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11">
         <v>2542</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>File này được sinh ra bởi Yến Phạm</v>
-      </c>
+    <row r="12" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/dist/document/dest/2020/10/loan.xlsx
+++ b/dist/document/dest/2020/10/loan.xlsx
@@ -17,13 +17,13 @@
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Loan</t>
+    <t>TDV: Loan</t>
   </si>
   <si>
     <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -545,7 +545,7 @@
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -623,19 +623,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="D6" s="10">
         <v>2900</v>
       </c>
       <c r="E6" s="10">
-        <v>2088000</v>
+        <v>2204000</v>
       </c>
       <c r="F6" s="10">
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>939600</v>
+        <v>991800</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -646,19 +646,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>1822</v>
+        <v>1861</v>
       </c>
       <c r="D7" s="10">
         <v>7999.999</v>
       </c>
       <c r="E7" s="10">
-        <v>14575998.178</v>
+        <v>14887998.139</v>
       </c>
       <c r="F7" s="10">
         <v>40</v>
       </c>
       <c r="G7" s="10">
-        <v>5830399.2712</v>
+        <v>5955199.255600001</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -667,15 +667,15 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="11">
-        <v>2542</v>
+        <v>2621</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11">
-        <v>16663998.178</v>
+        <v>17091998.139</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11">
-        <v>6769999.2712</v>
+        <v>6946999.255600001</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -771,7 +771,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
-        <v>720</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="10">
-        <v>720</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
-        <v>1822</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="10">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="10">
-        <v>1698</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="11">
-        <v>2542</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
